--- a/DividendLiberty/bin/Debug/Mortgage.xlsx
+++ b/DividendLiberty/bin/Debug/Mortgage.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve Yi\Documents\GitHub\DividendLibertyCommercial\DividendLiberty\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mortgage" sheetId="1" r:id="rId1"/>
@@ -554,15 +554,15 @@
       </c>
       <c r="B2" s="8">
         <f>B10</f>
-        <v>147318.24000000002</v>
+        <v>75705.450000000026</v>
       </c>
       <c r="C2" s="8">
         <f>C10</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="D2" s="8">
         <f>D10</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -610,19 +610,19 @@
       </c>
       <c r="B8" s="10">
         <f>B7-E8</f>
-        <v>147318.24000000002</v>
+        <v>75705.450000000026</v>
       </c>
       <c r="C8" s="10">
         <f>'2018'!O16</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="D8" s="10">
         <f>'2018'!P16</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="E8" s="10">
         <f>'2018'!L17</f>
-        <v>0</v>
+        <v>71612.789999999994</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -631,15 +631,15 @@
       </c>
       <c r="B9" s="9">
         <f>B8-E9</f>
-        <v>147318.24000000002</v>
+        <v>75705.450000000026</v>
       </c>
       <c r="C9" s="9">
         <f>'2018'!O16</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="D9" s="9">
         <f>'2019'!P16</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="E9" s="9">
         <f>'2019'!L17</f>
@@ -652,15 +652,15 @@
       </c>
       <c r="B10" s="10">
         <f>B9-E10</f>
-        <v>147318.24000000002</v>
+        <v>75705.450000000026</v>
       </c>
       <c r="C10" s="10">
         <f>'2019'!O16</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="D10" s="10">
         <f>'2020'!P16</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="E10" s="10">
         <f>'2020'!L17</f>
@@ -674,7 +674,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="8">
         <f>SUM(E7:E10)</f>
-        <v>71006.959999999992</v>
+        <v>142619.75</v>
       </c>
     </row>
   </sheetData>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1416,9 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="13">
+        <v>2164.81</v>
+      </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1428,15 +1430,15 @@
       <c r="K4" s="13"/>
       <c r="L4" s="13">
         <f>SUM(B4:K4)-N4</f>
-        <v>0</v>
+        <v>605.82999999999993</v>
       </c>
       <c r="M4" s="13">
         <f>(B2)-(L4)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N4" s="13">
         <f t="shared" ref="N4:N15" si="0">SUM(R4,Q4)</f>
-        <v>0</v>
+        <v>1558.98</v>
       </c>
       <c r="O4" s="13">
         <f>(B2*S2)/12</f>
@@ -1447,10 +1449,10 @@
         <v>605.83484999999996</v>
       </c>
       <c r="Q4" s="15">
-        <v>0</v>
+        <v>1083.26</v>
       </c>
       <c r="R4" s="15">
-        <v>0</v>
+        <v>475.72</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1473,7 +1475,7 @@
       </c>
       <c r="M5" s="13">
         <f>(M4)-(L5)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N5" s="13">
         <f t="shared" si="0"/>
@@ -1481,11 +1483,11 @@
       </c>
       <c r="O5" s="13">
         <f>(M4*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P5" s="13">
         <f>P2-O5</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q5" s="15">
         <v>0</v>
@@ -1514,7 +1516,7 @@
       </c>
       <c r="M6" s="13">
         <f>(M5)-(L6)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N6" s="13">
         <f t="shared" si="0"/>
@@ -1522,11 +1524,11 @@
       </c>
       <c r="O6" s="13">
         <f>(M5*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P6" s="13">
         <f>P2-O6</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q6" s="15">
         <v>0</v>
@@ -1555,7 +1557,7 @@
       </c>
       <c r="M7" s="13">
         <f>(M6)-(L7)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N7" s="13">
         <f t="shared" si="0"/>
@@ -1563,11 +1565,11 @@
       </c>
       <c r="O7" s="13">
         <f>(M6*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P7" s="13">
         <f>P2-O7</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q7" s="15">
         <v>0</v>
@@ -1596,7 +1598,7 @@
       </c>
       <c r="M8" s="13">
         <f>(M7)-(L8)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N8" s="13">
         <f t="shared" si="0"/>
@@ -1604,11 +1606,11 @@
       </c>
       <c r="O8" s="13">
         <f>(M7*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P8" s="13">
         <f>P2-O8</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q8" s="15">
         <v>0</v>
@@ -1637,7 +1639,7 @@
       </c>
       <c r="M9" s="13">
         <f>(M8)-(L9)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" si="0"/>
@@ -1645,11 +1647,11 @@
       </c>
       <c r="O9" s="13">
         <f>(M8*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P9" s="13">
         <f>P2-O9</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
@@ -1678,7 +1680,7 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ref="M10:M15" si="2">(M9)-(L10)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N10" s="13">
         <f t="shared" si="0"/>
@@ -1686,11 +1688,11 @@
       </c>
       <c r="O10" s="13">
         <f>(M9*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P10" s="13">
         <f>P2-O10</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
@@ -1719,7 +1721,7 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" si="0"/>
@@ -1727,11 +1729,11 @@
       </c>
       <c r="O11" s="13">
         <f>(M10*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P11" s="13">
         <f>P2-O11</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
@@ -1760,7 +1762,7 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N12" s="13">
         <f t="shared" si="0"/>
@@ -1768,11 +1770,11 @@
       </c>
       <c r="O12" s="13">
         <f>(M11*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P12" s="13">
         <f>P2-O12</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q12" s="15">
         <v>0</v>
@@ -1801,7 +1803,7 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N13" s="13">
         <f t="shared" si="0"/>
@@ -1809,11 +1811,11 @@
       </c>
       <c r="O13" s="13">
         <f>(M12*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P13" s="13">
         <f>P2-O13</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q13" s="15">
         <v>0</v>
@@ -1842,7 +1844,7 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" si="0"/>
@@ -1850,11 +1852,11 @@
       </c>
       <c r="O14" s="13">
         <f>(M13*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P14" s="13">
         <f>P2-O14</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
@@ -1883,7 +1885,7 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N15" s="13">
         <f t="shared" si="0"/>
@@ -1891,11 +1893,11 @@
       </c>
       <c r="O15" s="13">
         <f>(M14*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P15" s="13">
         <f>P2-O15</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q15" s="15">
         <v>0</v>
@@ -1907,20 +1909,21 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O16" s="11">
         <f>(M15*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P16" s="11">
         <f>P2-O16</f>
-        <v>605.83484999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>607.79117604166663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L17" s="11">
-        <f>SUM(L4:L15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <f>SUM(L4:L15)+'2017'!L17</f>
+        <v>71612.789999999994</v>
+      </c>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1937,6 +1940,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2004,7 +2008,7 @@
       </c>
       <c r="B2" s="13">
         <f>'2018'!M15</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2073,7 +2077,7 @@
       </c>
       <c r="M4" s="13">
         <f>(B2)-(L4)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N4" s="13">
         <f t="shared" ref="N4:N15" si="1">SUM(R4,Q4)</f>
@@ -2081,11 +2085,11 @@
       </c>
       <c r="O4" s="13">
         <f>(B2*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P4" s="13">
         <f>P2-O4</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q4" s="15">
         <v>0</v>
@@ -2114,7 +2118,7 @@
       </c>
       <c r="M5" s="13">
         <f>(M4)-(L5)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N5" s="13">
         <f t="shared" si="1"/>
@@ -2122,11 +2126,11 @@
       </c>
       <c r="O5" s="13">
         <f>(M4*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P5" s="13">
         <f>P2-O5</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q5" s="15">
         <v>0</v>
@@ -2155,7 +2159,7 @@
       </c>
       <c r="M6" s="13">
         <f>(M5)-(L6)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N6" s="13">
         <f t="shared" si="1"/>
@@ -2163,11 +2167,11 @@
       </c>
       <c r="O6" s="13">
         <f>(M5*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P6" s="13">
         <f>P2-O6</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q6" s="15">
         <v>0</v>
@@ -2196,7 +2200,7 @@
       </c>
       <c r="M7" s="13">
         <f>(M6)-(L7)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N7" s="13">
         <f t="shared" si="1"/>
@@ -2204,11 +2208,11 @@
       </c>
       <c r="O7" s="13">
         <f>(M6*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P7" s="13">
         <f>P2-O7</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q7" s="15">
         <v>0</v>
@@ -2237,7 +2241,7 @@
       </c>
       <c r="M8" s="13">
         <f>(M7)-(L8)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N8" s="13">
         <f t="shared" si="1"/>
@@ -2245,11 +2249,11 @@
       </c>
       <c r="O8" s="13">
         <f>(M7*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P8" s="13">
         <f>P2-O8</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q8" s="15">
         <v>0</v>
@@ -2278,7 +2282,7 @@
       </c>
       <c r="M9" s="13">
         <f>(M8)-(L9)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" si="1"/>
@@ -2286,11 +2290,11 @@
       </c>
       <c r="O9" s="13">
         <f>(M8*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P9" s="13">
         <f>P2-O9</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
@@ -2319,7 +2323,7 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ref="M10:M15" si="2">(M9)-(L10)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N10" s="13">
         <f t="shared" si="1"/>
@@ -2327,11 +2331,11 @@
       </c>
       <c r="O10" s="13">
         <f>(M9*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P10" s="13">
         <f>P2-O10</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
@@ -2360,7 +2364,7 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" si="1"/>
@@ -2368,11 +2372,11 @@
       </c>
       <c r="O11" s="13">
         <f>(M10*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P11" s="13">
         <f>P2-O11</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
@@ -2401,7 +2405,7 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N12" s="13">
         <f t="shared" si="1"/>
@@ -2409,11 +2413,11 @@
       </c>
       <c r="O12" s="13">
         <f>(M11*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P12" s="13">
         <f>P2-O12</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q12" s="15">
         <v>0</v>
@@ -2442,7 +2446,7 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N13" s="13">
         <f t="shared" si="1"/>
@@ -2450,11 +2454,11 @@
       </c>
       <c r="O13" s="13">
         <f>(M12*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P13" s="13">
         <f>P2-O13</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q13" s="15">
         <v>0</v>
@@ -2483,7 +2487,7 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" si="1"/>
@@ -2491,11 +2495,11 @@
       </c>
       <c r="O14" s="13">
         <f>(M13*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P14" s="13">
         <f>P2-O14</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
@@ -2524,7 +2528,7 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N15" s="13">
         <f t="shared" si="1"/>
@@ -2532,11 +2536,11 @@
       </c>
       <c r="O15" s="13">
         <f>(M14*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P15" s="13">
         <f>P2-O15</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q15" s="15">
         <v>0</v>
@@ -2548,11 +2552,11 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O16" s="11">
         <f>(M15*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P16" s="11">
         <f>P2-O16</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2650,7 +2654,7 @@
       </c>
       <c r="B2" s="13">
         <f>'2019'!M15</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2719,7 +2723,7 @@
       </c>
       <c r="M4" s="13">
         <f>(B2)-(L4)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N4" s="13">
         <f t="shared" ref="N4:N15" si="1">SUM(R4,Q4)</f>
@@ -2727,11 +2731,11 @@
       </c>
       <c r="O4" s="13">
         <f>(B2*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P4" s="13">
         <f>P2-O4</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q4" s="15">
         <v>0</v>
@@ -2760,7 +2764,7 @@
       </c>
       <c r="M5" s="13">
         <f>(M4)-(L5)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N5" s="13">
         <f t="shared" si="1"/>
@@ -2768,11 +2772,11 @@
       </c>
       <c r="O5" s="13">
         <f>(M4*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P5" s="13">
         <f>P2-O5</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q5" s="15">
         <v>0</v>
@@ -2801,7 +2805,7 @@
       </c>
       <c r="M6" s="13">
         <f>(M5)-(L6)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N6" s="13">
         <f t="shared" si="1"/>
@@ -2809,11 +2813,11 @@
       </c>
       <c r="O6" s="13">
         <f>(M5*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P6" s="13">
         <f>P2-O6</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q6" s="15">
         <v>0</v>
@@ -2842,7 +2846,7 @@
       </c>
       <c r="M7" s="13">
         <f>(M6)-(L7)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N7" s="13">
         <f t="shared" si="1"/>
@@ -2850,11 +2854,11 @@
       </c>
       <c r="O7" s="13">
         <f>(M6*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P7" s="13">
         <f>P2-O7</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q7" s="15">
         <v>0</v>
@@ -2883,7 +2887,7 @@
       </c>
       <c r="M8" s="13">
         <f>(M7)-(L8)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N8" s="13">
         <f t="shared" si="1"/>
@@ -2891,11 +2895,11 @@
       </c>
       <c r="O8" s="13">
         <f>(M7*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P8" s="13">
         <f>P2-O8</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q8" s="15">
         <v>0</v>
@@ -2924,7 +2928,7 @@
       </c>
       <c r="M9" s="13">
         <f>(M8)-(L9)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N9" s="13">
         <f t="shared" si="1"/>
@@ -2932,11 +2936,11 @@
       </c>
       <c r="O9" s="13">
         <f>(M8*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P9" s="13">
         <f>P2-O9</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
@@ -2965,7 +2969,7 @@
       </c>
       <c r="M10" s="13">
         <f t="shared" ref="M10:M15" si="2">(M9)-(L10)</f>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N10" s="13">
         <f t="shared" si="1"/>
@@ -2973,11 +2977,11 @@
       </c>
       <c r="O10" s="13">
         <f>(M9*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P10" s="13">
         <f>P2-O10</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q10" s="15">
         <v>0</v>
@@ -3006,7 +3010,7 @@
       </c>
       <c r="M11" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" si="1"/>
@@ -3014,11 +3018,11 @@
       </c>
       <c r="O11" s="13">
         <f>(M10*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P11" s="13">
         <f>P2-O11</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q11" s="15">
         <v>0</v>
@@ -3047,7 +3051,7 @@
       </c>
       <c r="M12" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N12" s="13">
         <f t="shared" si="1"/>
@@ -3055,11 +3059,11 @@
       </c>
       <c r="O12" s="13">
         <f>(M11*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P12" s="13">
         <f>P2-O12</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q12" s="15">
         <v>0</v>
@@ -3088,7 +3092,7 @@
       </c>
       <c r="M13" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N13" s="13">
         <f t="shared" si="1"/>
@@ -3096,11 +3100,11 @@
       </c>
       <c r="O13" s="13">
         <f>(M12*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P13" s="13">
         <f>P2-O13</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q13" s="15">
         <v>0</v>
@@ -3129,7 +3133,7 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" si="1"/>
@@ -3137,11 +3141,11 @@
       </c>
       <c r="O14" s="13">
         <f>(M13*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P14" s="13">
         <f>P2-O14</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
@@ -3170,7 +3174,7 @@
       </c>
       <c r="M15" s="13">
         <f t="shared" si="2"/>
-        <v>147318.24000000002</v>
+        <v>146712.41000000003</v>
       </c>
       <c r="N15" s="13">
         <f t="shared" si="1"/>
@@ -3178,11 +3182,11 @@
       </c>
       <c r="O15" s="13">
         <f>(M14*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P15" s="13">
         <f>P2-O15</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
       <c r="Q15" s="15">
         <v>0</v>
@@ -3194,11 +3198,11 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O16" s="11">
         <f>(M15*S2)/12</f>
-        <v>475.71515000000005</v>
+        <v>473.75882395833338</v>
       </c>
       <c r="P16" s="11">
         <f>P2-O16</f>
-        <v>605.83484999999996</v>
+        <v>607.79117604166663</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
